--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl5-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl5-Cxcr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6472015</v>
+        <v>3.7107675</v>
       </c>
       <c r="H2">
-        <v>1.294403</v>
+        <v>7.421535</v>
       </c>
       <c r="I2">
-        <v>0.02102898872844592</v>
+        <v>0.4297212203365021</v>
       </c>
       <c r="J2">
-        <v>0.01428114079438904</v>
+        <v>0.3540438930304464</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.7166990000000001</v>
+        <v>0.358189</v>
       </c>
       <c r="N2">
-        <v>2.150097</v>
+        <v>0.716378</v>
       </c>
       <c r="O2">
-        <v>0.2276207788704612</v>
+        <v>0.052978466298774</v>
       </c>
       <c r="P2">
-        <v>0.2276207788704611</v>
+        <v>0.03595390511601538</v>
       </c>
       <c r="Q2">
-        <v>0.4638486678485</v>
+        <v>1.3291561000575</v>
       </c>
       <c r="R2">
-        <v>2.783092007091</v>
+        <v>5.31662440023</v>
       </c>
       <c r="S2">
-        <v>0.00478663479322701</v>
+        <v>0.02276597118946542</v>
       </c>
       <c r="T2">
-        <v>0.00325068439077755</v>
+        <v>0.01272926053692137</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,51 +605,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6472015</v>
+        <v>3.7107675</v>
       </c>
       <c r="H3">
-        <v>1.294403</v>
+        <v>7.421535</v>
       </c>
       <c r="I3">
-        <v>0.02102898872844592</v>
+        <v>0.4297212203365021</v>
       </c>
       <c r="J3">
-        <v>0.01428114079438904</v>
+        <v>0.3540438930304464</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>2.431954666666666</v>
+        <v>0.574863</v>
       </c>
       <c r="N3">
-        <v>7.295864</v>
+        <v>1.724589</v>
       </c>
       <c r="O3">
-        <v>0.7723792211295388</v>
+        <v>0.08502595018806307</v>
       </c>
       <c r="P3">
-        <v>0.7723792211295388</v>
+        <v>0.08655445766079338</v>
       </c>
       <c r="Q3">
-        <v>1.573964708198667</v>
+        <v>2.1331829373525</v>
       </c>
       <c r="R3">
-        <v>9.443788249192</v>
+        <v>12.799097624115</v>
       </c>
       <c r="S3">
-        <v>0.01624235393521891</v>
+        <v>0.0365374550750851</v>
       </c>
       <c r="T3">
-        <v>0.01103045640361149</v>
+        <v>0.03064407714936623</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8756339999999999</v>
+        <v>3.7107675</v>
       </c>
       <c r="H4">
-        <v>2.626902</v>
+        <v>7.421535</v>
       </c>
       <c r="I4">
-        <v>0.02845125902248993</v>
+        <v>0.4297212203365021</v>
       </c>
       <c r="J4">
-        <v>0.02898259453590742</v>
+        <v>0.3540438930304464</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7166990000000001</v>
+        <v>5.590969</v>
       </c>
       <c r="N4">
-        <v>2.150097</v>
+        <v>16.772907</v>
       </c>
       <c r="O4">
-        <v>0.2276207788704612</v>
+        <v>0.8269404217996371</v>
       </c>
       <c r="P4">
-        <v>0.2276207788704611</v>
+        <v>0.8418062905306279</v>
       </c>
       <c r="Q4">
-        <v>0.6275660121660001</v>
+        <v>20.7467860587075</v>
       </c>
       <c r="R4">
-        <v>5.648094109494</v>
+        <v>124.480716352245</v>
       </c>
       <c r="S4">
-        <v>0.006476097738544394</v>
+        <v>0.3553538472013218</v>
       </c>
       <c r="T4">
-        <v>0.006597040741950017</v>
+        <v>0.2980363762769825</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -726,19 +726,19 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8756339999999999</v>
+        <v>3.7107675</v>
       </c>
       <c r="H5">
-        <v>2.626902</v>
+        <v>7.421535</v>
       </c>
       <c r="I5">
-        <v>0.02845125902248993</v>
+        <v>0.4297212203365021</v>
       </c>
       <c r="J5">
-        <v>0.02898259453590742</v>
+        <v>0.3540438930304464</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.431954666666666</v>
+        <v>0.237009</v>
       </c>
       <c r="N5">
-        <v>7.295864</v>
+        <v>0.7110270000000001</v>
       </c>
       <c r="O5">
-        <v>0.7723792211295388</v>
+        <v>0.0350551617135259</v>
       </c>
       <c r="P5">
-        <v>0.7723792211295388</v>
+        <v>0.03568534669256324</v>
       </c>
       <c r="Q5">
-        <v>2.129502192592</v>
+        <v>0.8794852944075001</v>
       </c>
       <c r="R5">
-        <v>19.165519733328</v>
+        <v>5.276911766445001</v>
       </c>
       <c r="S5">
-        <v>0.02197516128394554</v>
+        <v>0.01506394687062978</v>
       </c>
       <c r="T5">
-        <v>0.0223855537939574</v>
+        <v>0.01263417906717625</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,122 +782,122 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>3.540639</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H6">
-        <v>10.621917</v>
+        <v>2.626902</v>
       </c>
       <c r="I6">
-        <v>0.1150430856889177</v>
+        <v>0.1014018019313074</v>
       </c>
       <c r="J6">
-        <v>0.1171915486778959</v>
+        <v>0.1253162062416287</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.7166990000000001</v>
+        <v>0.358189</v>
       </c>
       <c r="N6">
-        <v>2.150097</v>
+        <v>0.716378</v>
       </c>
       <c r="O6">
-        <v>0.2276207788704612</v>
+        <v>0.052978466298774</v>
       </c>
       <c r="P6">
-        <v>0.2276207788704611</v>
+        <v>0.03595390511601538</v>
       </c>
       <c r="Q6">
-        <v>2.537572430661001</v>
+        <v>0.3136424668260001</v>
       </c>
       <c r="R6">
-        <v>22.838151875949</v>
+        <v>1.881854800956</v>
       </c>
       <c r="S6">
-        <v>0.02618619676817265</v>
+        <v>0.005372111946252725</v>
       </c>
       <c r="T6">
-        <v>0.02667523158709822</v>
+        <v>0.004505606988710532</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>3.540639</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H7">
-        <v>10.621917</v>
+        <v>2.626902</v>
       </c>
       <c r="I7">
-        <v>0.1150430856889177</v>
+        <v>0.1014018019313074</v>
       </c>
       <c r="J7">
-        <v>0.1171915486778959</v>
+        <v>0.1253162062416287</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>2.431954666666666</v>
+        <v>0.574863</v>
       </c>
       <c r="N7">
-        <v>7.295864</v>
+        <v>1.724589</v>
       </c>
       <c r="O7">
-        <v>0.7723792211295388</v>
+        <v>0.08502595018806307</v>
       </c>
       <c r="P7">
-        <v>0.7723792211295388</v>
+        <v>0.08655445766079338</v>
       </c>
       <c r="Q7">
-        <v>8.610673539032</v>
+        <v>0.5033695881420001</v>
       </c>
       <c r="R7">
-        <v>77.496061851288</v>
+        <v>4.530326293278001</v>
       </c>
       <c r="S7">
-        <v>0.08885688892074503</v>
+        <v>0.008621784559991181</v>
       </c>
       <c r="T7">
-        <v>0.09051631709079767</v>
+        <v>0.0108466762673523</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>1.045475</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H8">
-        <v>2.09095</v>
+        <v>2.626902</v>
       </c>
       <c r="I8">
-        <v>0.03396976365300761</v>
+        <v>0.1014018019313074</v>
       </c>
       <c r="J8">
-        <v>0.02306943922721732</v>
+        <v>0.1253162062416287</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7166990000000001</v>
+        <v>5.590969</v>
       </c>
       <c r="N8">
-        <v>2.150097</v>
+        <v>16.772907</v>
       </c>
       <c r="O8">
-        <v>0.2276207788704612</v>
+        <v>0.8269404217996371</v>
       </c>
       <c r="P8">
-        <v>0.2276207788704611</v>
+        <v>0.8418062905306279</v>
       </c>
       <c r="Q8">
-        <v>0.7492908870250002</v>
+        <v>4.895642549346001</v>
       </c>
       <c r="R8">
-        <v>4.495745322150001</v>
+        <v>44.060782944114</v>
       </c>
       <c r="S8">
-        <v>0.007732224060743075</v>
+        <v>0.08385324886031859</v>
       </c>
       <c r="T8">
-        <v>0.005251083725003975</v>
+        <v>0.1054919707196366</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -974,19 +974,19 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>1.045475</v>
+        <v>0.8756340000000001</v>
       </c>
       <c r="H9">
-        <v>2.09095</v>
+        <v>2.626902</v>
       </c>
       <c r="I9">
-        <v>0.03396976365300761</v>
+        <v>0.1014018019313074</v>
       </c>
       <c r="J9">
-        <v>0.02306943922721732</v>
+        <v>0.1253162062416287</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,33 +995,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.431954666666666</v>
+        <v>0.237009</v>
       </c>
       <c r="N9">
-        <v>7.295864</v>
+        <v>0.7110270000000001</v>
       </c>
       <c r="O9">
-        <v>0.7723792211295388</v>
+        <v>0.0350551617135259</v>
       </c>
       <c r="P9">
-        <v>0.7723792211295388</v>
+        <v>0.03568534669256324</v>
       </c>
       <c r="Q9">
-        <v>2.542547805133334</v>
+        <v>0.207533138706</v>
       </c>
       <c r="R9">
-        <v>15.2552868308</v>
+        <v>1.867798248354</v>
       </c>
       <c r="S9">
-        <v>0.02623753959226454</v>
+        <v>0.003554656564744903</v>
       </c>
       <c r="T9">
-        <v>0.01781835550221334</v>
+        <v>0.004471952265929277</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.243757666666667</v>
+        <v>1.048369666666667</v>
       </c>
       <c r="H10">
-        <v>3.731273</v>
+        <v>3.145109</v>
       </c>
       <c r="I10">
-        <v>0.04041240008444284</v>
+        <v>0.1214052598347301</v>
       </c>
       <c r="J10">
-        <v>0.04116711337605242</v>
+        <v>0.1500372408625836</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.7166990000000001</v>
+        <v>0.358189</v>
       </c>
       <c r="N10">
-        <v>2.150097</v>
+        <v>0.716378</v>
       </c>
       <c r="O10">
-        <v>0.2276207788704612</v>
+        <v>0.052978466298774</v>
       </c>
       <c r="P10">
-        <v>0.2276207788704611</v>
+        <v>0.03595390511601538</v>
       </c>
       <c r="Q10">
-        <v>0.8913998759423334</v>
+        <v>0.3755144825336666</v>
       </c>
       <c r="R10">
-        <v>8.022598883481001</v>
+        <v>2.253086895202</v>
       </c>
       <c r="S10">
-        <v>0.00919870198324557</v>
+        <v>0.00643186446664815</v>
       </c>
       <c r="T10">
-        <v>0.009370490410505632</v>
+        <v>0.005394424721842075</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.243757666666667</v>
+        <v>1.048369666666667</v>
       </c>
       <c r="H11">
-        <v>3.731273</v>
+        <v>3.145109</v>
       </c>
       <c r="I11">
-        <v>0.04041240008444284</v>
+        <v>0.1214052598347301</v>
       </c>
       <c r="J11">
-        <v>0.04116711337605242</v>
+        <v>0.1500372408625836</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>2.431954666666666</v>
+        <v>0.574863</v>
       </c>
       <c r="N11">
-        <v>7.295864</v>
+        <v>1.724589</v>
       </c>
       <c r="O11">
-        <v>0.7723792211295388</v>
+        <v>0.08502595018806307</v>
       </c>
       <c r="P11">
-        <v>0.7723792211295388</v>
+        <v>0.08655445766079338</v>
       </c>
       <c r="Q11">
-        <v>3.024762261652444</v>
+        <v>0.602668931689</v>
       </c>
       <c r="R11">
-        <v>27.222860354872</v>
+        <v>5.424020385201</v>
       </c>
       <c r="S11">
-        <v>0.03121369810119727</v>
+        <v>0.01032259757527662</v>
       </c>
       <c r="T11">
-        <v>0.03179662296554679</v>
+        <v>0.01298639201178275</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>1.048369666666667</v>
+      </c>
+      <c r="H12">
+        <v>3.145109</v>
+      </c>
+      <c r="I12">
+        <v>0.1214052598347301</v>
+      </c>
+      <c r="J12">
+        <v>0.1500372408625836</v>
+      </c>
+      <c r="K12">
         <v>3</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>23.42392733333334</v>
-      </c>
-      <c r="H12">
-        <v>70.271782</v>
-      </c>
-      <c r="I12">
-        <v>0.7610945028226961</v>
-      </c>
-      <c r="J12">
-        <v>0.7753081633885379</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7166990000000001</v>
+        <v>5.590969</v>
       </c>
       <c r="N12">
-        <v>2.150097</v>
+        <v>16.772907</v>
       </c>
       <c r="O12">
-        <v>0.2276207788704612</v>
+        <v>0.8269404217996371</v>
       </c>
       <c r="P12">
-        <v>0.2276207788704611</v>
+        <v>0.8418062905306279</v>
       </c>
       <c r="Q12">
-        <v>16.78790529587267</v>
+        <v>5.861402306873667</v>
       </c>
       <c r="R12">
-        <v>151.091147662854</v>
+        <v>52.752620761863</v>
       </c>
       <c r="S12">
-        <v>0.1732409235265285</v>
+        <v>0.1003949167764263</v>
       </c>
       <c r="T12">
-        <v>0.1764762480151257</v>
+        <v>0.1263022931719818</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,22 +1219,22 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>23.42392733333334</v>
+        <v>1.048369666666667</v>
       </c>
       <c r="H13">
-        <v>70.271782</v>
+        <v>3.145109</v>
       </c>
       <c r="I13">
-        <v>0.7610945028226961</v>
+        <v>0.1214052598347301</v>
       </c>
       <c r="J13">
-        <v>0.7753081633885379</v>
+        <v>0.1500372408625836</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,772 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.431954666666666</v>
+        <v>0.237009</v>
       </c>
       <c r="N13">
-        <v>7.295864</v>
+        <v>0.7110270000000001</v>
       </c>
       <c r="O13">
-        <v>0.7723792211295388</v>
+        <v>0.0350551617135259</v>
       </c>
       <c r="P13">
-        <v>0.7723792211295388</v>
+        <v>0.03568534669256324</v>
       </c>
       <c r="Q13">
-        <v>56.96592938996089</v>
+        <v>0.248473046327</v>
       </c>
       <c r="R13">
-        <v>512.6933645096479</v>
+        <v>2.236257416943</v>
       </c>
       <c r="S13">
-        <v>0.5878535792961675</v>
+        <v>0.004255881016379095</v>
       </c>
       <c r="T13">
-        <v>0.5988319153734122</v>
+        <v>0.005354130956976911</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.2329145</v>
+      </c>
+      <c r="H14">
+        <v>2.465829</v>
+      </c>
+      <c r="I14">
+        <v>0.1427762648860562</v>
+      </c>
+      <c r="J14">
+        <v>0.1176322281990683</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.358189</v>
+      </c>
+      <c r="N14">
+        <v>0.716378</v>
+      </c>
+      <c r="O14">
+        <v>0.052978466298774</v>
+      </c>
+      <c r="P14">
+        <v>0.03595390511601538</v>
+      </c>
+      <c r="Q14">
+        <v>0.4416164118405</v>
+      </c>
+      <c r="R14">
+        <v>1.766465647362</v>
+      </c>
+      <c r="S14">
+        <v>0.007564067537530756</v>
+      </c>
+      <c r="T14">
+        <v>0.004229337971254772</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.2329145</v>
+      </c>
+      <c r="H15">
+        <v>2.465829</v>
+      </c>
+      <c r="I15">
+        <v>0.1427762648860562</v>
+      </c>
+      <c r="J15">
+        <v>0.1176322281990683</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.574863</v>
+      </c>
+      <c r="N15">
+        <v>1.724589</v>
+      </c>
+      <c r="O15">
+        <v>0.08502595018806307</v>
+      </c>
+      <c r="P15">
+        <v>0.08655445766079338</v>
+      </c>
+      <c r="Q15">
+        <v>0.7087569282135001</v>
+      </c>
+      <c r="R15">
+        <v>4.252541569281</v>
+      </c>
+      <c r="S15">
+        <v>0.01213968758623951</v>
+      </c>
+      <c r="T15">
+        <v>0.01018159371520105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.2329145</v>
+      </c>
+      <c r="H16">
+        <v>2.465829</v>
+      </c>
+      <c r="I16">
+        <v>0.1427762648860562</v>
+      </c>
+      <c r="J16">
+        <v>0.1176322281990683</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.590969</v>
+      </c>
+      <c r="N16">
+        <v>16.772907</v>
+      </c>
+      <c r="O16">
+        <v>0.8269404217996371</v>
+      </c>
+      <c r="P16">
+        <v>0.8418062905306279</v>
+      </c>
+      <c r="Q16">
+        <v>6.893186749150501</v>
+      </c>
+      <c r="R16">
+        <v>41.359120494903</v>
+      </c>
+      <c r="S16">
+        <v>0.118067464707852</v>
+      </c>
+      <c r="T16">
+        <v>0.09902354966711005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.2329145</v>
+      </c>
+      <c r="H17">
+        <v>2.465829</v>
+      </c>
+      <c r="I17">
+        <v>0.1427762648860562</v>
+      </c>
+      <c r="J17">
+        <v>0.1176322281990683</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.237009</v>
+      </c>
+      <c r="N17">
+        <v>0.7110270000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.0350551617135259</v>
+      </c>
+      <c r="P17">
+        <v>0.03568534669256324</v>
+      </c>
+      <c r="Q17">
+        <v>0.2922118327305001</v>
+      </c>
+      <c r="R17">
+        <v>1.753270996383</v>
+      </c>
+      <c r="S17">
+        <v>0.005005045054433908</v>
+      </c>
+      <c r="T17">
+        <v>0.004197746845502468</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.9623080000000001</v>
+      </c>
+      <c r="H18">
+        <v>2.886924</v>
+      </c>
+      <c r="I18">
+        <v>0.1114389861664948</v>
+      </c>
+      <c r="J18">
+        <v>0.1377205405408758</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.5</v>
+      </c>
+      <c r="M18">
+        <v>0.358189</v>
+      </c>
+      <c r="N18">
+        <v>0.716378</v>
+      </c>
+      <c r="O18">
+        <v>0.052978466298774</v>
+      </c>
+      <c r="P18">
+        <v>0.03595390511601538</v>
+      </c>
+      <c r="Q18">
+        <v>0.344688140212</v>
+      </c>
+      <c r="R18">
+        <v>2.068128841272</v>
+      </c>
+      <c r="S18">
+        <v>0.005903866572991189</v>
+      </c>
+      <c r="T18">
+        <v>0.004951591247132996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.9623080000000001</v>
+      </c>
+      <c r="H19">
+        <v>2.886924</v>
+      </c>
+      <c r="I19">
+        <v>0.1114389861664948</v>
+      </c>
+      <c r="J19">
+        <v>0.1377205405408758</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.574863</v>
+      </c>
+      <c r="N19">
+        <v>1.724589</v>
+      </c>
+      <c r="O19">
+        <v>0.08502595018806307</v>
+      </c>
+      <c r="P19">
+        <v>0.08655445766079338</v>
+      </c>
+      <c r="Q19">
+        <v>0.5531952638040001</v>
+      </c>
+      <c r="R19">
+        <v>4.978757374236</v>
+      </c>
+      <c r="S19">
+        <v>0.009475205686800641</v>
+      </c>
+      <c r="T19">
+        <v>0.01192032669526681</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.9623080000000001</v>
+      </c>
+      <c r="H20">
+        <v>2.886924</v>
+      </c>
+      <c r="I20">
+        <v>0.1114389861664948</v>
+      </c>
+      <c r="J20">
+        <v>0.1377205405408758</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.590969</v>
+      </c>
+      <c r="N20">
+        <v>16.772907</v>
+      </c>
+      <c r="O20">
+        <v>0.8269404217996371</v>
+      </c>
+      <c r="P20">
+        <v>0.8418062905306279</v>
+      </c>
+      <c r="Q20">
+        <v>5.380234196452</v>
+      </c>
+      <c r="R20">
+        <v>48.422107768068</v>
+      </c>
+      <c r="S20">
+        <v>0.09215340222544517</v>
+      </c>
+      <c r="T20">
+        <v>0.1159340173625876</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.9623080000000001</v>
+      </c>
+      <c r="H21">
+        <v>2.886924</v>
+      </c>
+      <c r="I21">
+        <v>0.1114389861664948</v>
+      </c>
+      <c r="J21">
+        <v>0.1377205405408758</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.237009</v>
+      </c>
+      <c r="N21">
+        <v>0.7110270000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.0350551617135259</v>
+      </c>
+      <c r="P21">
+        <v>0.03568534669256324</v>
+      </c>
+      <c r="Q21">
+        <v>0.228075656772</v>
+      </c>
+      <c r="R21">
+        <v>2.052680910948</v>
+      </c>
+      <c r="S21">
+        <v>0.003906511681257853</v>
+      </c>
+      <c r="T21">
+        <v>0.004914605235888363</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.8052966666666667</v>
+      </c>
+      <c r="H22">
+        <v>2.41589</v>
+      </c>
+      <c r="I22">
+        <v>0.0932564668449094</v>
+      </c>
+      <c r="J22">
+        <v>0.1152498911253973</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.5</v>
+      </c>
+      <c r="M22">
+        <v>0.358189</v>
+      </c>
+      <c r="N22">
+        <v>0.716378</v>
+      </c>
+      <c r="O22">
+        <v>0.052978466298774</v>
+      </c>
+      <c r="P22">
+        <v>0.03595390511601538</v>
+      </c>
+      <c r="Q22">
+        <v>0.2884484077366666</v>
+      </c>
+      <c r="R22">
+        <v>1.73069044642</v>
+      </c>
+      <c r="S22">
+        <v>0.004940584585885767</v>
+      </c>
+      <c r="T22">
+        <v>0.004143683650153636</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.8052966666666667</v>
+      </c>
+      <c r="H23">
+        <v>2.41589</v>
+      </c>
+      <c r="I23">
+        <v>0.0932564668449094</v>
+      </c>
+      <c r="J23">
+        <v>0.1152498911253973</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.574863</v>
+      </c>
+      <c r="N23">
+        <v>1.724589</v>
+      </c>
+      <c r="O23">
+        <v>0.08502595018806307</v>
+      </c>
+      <c r="P23">
+        <v>0.08655445766079338</v>
+      </c>
+      <c r="Q23">
+        <v>0.46293525769</v>
+      </c>
+      <c r="R23">
+        <v>4.16641731921</v>
+      </c>
+      <c r="S23">
+        <v>0.007929219704670021</v>
+      </c>
+      <c r="T23">
+        <v>0.009975391821824244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.8052966666666667</v>
+      </c>
+      <c r="H24">
+        <v>2.41589</v>
+      </c>
+      <c r="I24">
+        <v>0.0932564668449094</v>
+      </c>
+      <c r="J24">
+        <v>0.1152498911253973</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>5.590969</v>
+      </c>
+      <c r="N24">
+        <v>16.772907</v>
+      </c>
+      <c r="O24">
+        <v>0.8269404217996371</v>
+      </c>
+      <c r="P24">
+        <v>0.8418062905306279</v>
+      </c>
+      <c r="Q24">
+        <v>4.502388699136667</v>
+      </c>
+      <c r="R24">
+        <v>40.52149829223</v>
+      </c>
+      <c r="S24">
+        <v>0.07711754202827326</v>
+      </c>
+      <c r="T24">
+        <v>0.09701808333232941</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.8052966666666667</v>
+      </c>
+      <c r="H25">
+        <v>2.41589</v>
+      </c>
+      <c r="I25">
+        <v>0.0932564668449094</v>
+      </c>
+      <c r="J25">
+        <v>0.1152498911253973</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.237009</v>
+      </c>
+      <c r="N25">
+        <v>0.7110270000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.0350551617135259</v>
+      </c>
+      <c r="P25">
+        <v>0.03568534669256324</v>
+      </c>
+      <c r="Q25">
+        <v>0.19086255767</v>
+      </c>
+      <c r="R25">
+        <v>1.71776301903</v>
+      </c>
+      <c r="S25">
+        <v>0.003269120526080365</v>
+      </c>
+      <c r="T25">
+        <v>0.004112732321089969</v>
       </c>
     </row>
   </sheetData>
